--- a/results/mp/logistic/corona/confidence/168/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,33 +52,27 @@
     <t>died</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -88,106 +82,112 @@
     <t>stop</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>hope</t>
   </si>
   <si>
     <t>boost</t>
@@ -196,43 +196,34 @@
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>security</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>protect</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
   <si>
     <t>helping</t>
@@ -596,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,10 +595,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -665,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7465753424657534</v>
+        <v>0.7226027397260274</v>
       </c>
       <c r="C3">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D3">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -683,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -715,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7368421052631579</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -733,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7241379310344828</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -783,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -807,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,38 +806,38 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6538461538461539</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="L6">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="M6">
         <v>17</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6">
-        <v>0.9152542372881356</v>
-      </c>
-      <c r="L6">
-        <v>54</v>
-      </c>
-      <c r="M6">
-        <v>54</v>
-      </c>
       <c r="N6">
         <v>1</v>
       </c>
@@ -857,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -865,7 +856,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5588235294117647</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C7">
         <v>19</v>
@@ -883,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -915,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5555555555555556</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -933,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8839285714285714</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -957,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -965,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -983,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8484848484848485</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1007,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1015,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4594594594594595</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1033,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8461538461538461</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1057,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1065,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4074074074074074</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C11">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1083,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1107,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,13 +1106,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3217054263565892</v>
+        <v>0.3294573643410852</v>
       </c>
       <c r="C12">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D12">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1133,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.825065274151436</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L12">
-        <v>316</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>316</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1157,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1186,16 +1177,16 @@
         <v>37</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.8207547169811321</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1207,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1215,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2727272727272727</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1233,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.7816901408450704</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L14">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="M14">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1257,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1265,13 +1256,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2542372881355932</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1283,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.7804878048780488</v>
+        <v>0.7734375</v>
       </c>
       <c r="L15">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="M15">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1307,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1315,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2533333333333334</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="C16">
         <v>19</v>
@@ -1333,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.75625</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1357,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1365,87 +1356,63 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.174496644295302</v>
+        <v>0.005152979066022544</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>123</v>
+        <v>3089</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.7535211267605634</v>
+      </c>
+      <c r="L17">
+        <v>107</v>
+      </c>
+      <c r="M17">
+        <v>107</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K17">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="L17">
-        <v>45</v>
-      </c>
-      <c r="M17">
-        <v>45</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.06746031746031746</v>
-      </c>
-      <c r="C18">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>235</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="K18">
-        <v>0.7578125</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1457,21 +1424,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19">
         <v>0.75</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1483,21 +1450,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>0.7375</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1509,21 +1476,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1535,21 +1502,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>0.6842105263157895</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1566,16 +1533,16 @@
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23">
-        <v>0.6818181818181818</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1587,21 +1554,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.6818181818181818</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1613,21 +1580,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1639,21 +1606,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.6666666666666666</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1665,21 +1632,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1691,21 +1658,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.6595744680851063</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1717,21 +1684,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.6571428571428571</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1743,21 +1710,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.6511627906976745</v>
+        <v>0.625</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1769,21 +1736,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.6507936507936508</v>
+        <v>0.62</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1795,21 +1762,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.625</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1821,21 +1788,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.625</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1847,21 +1814,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K34">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L34">
         <v>56</v>
       </c>
-      <c r="K34">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="L34">
-        <v>17</v>
-      </c>
       <c r="M34">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1873,21 +1840,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.6058823529411764</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L35">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1899,21 +1866,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>134</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.5652173913043478</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1925,21 +1892,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.5606694560669456</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L37">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1951,21 +1918,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>105</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.5538461538461539</v>
+        <v>0.5606694560669456</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1977,21 +1944,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.5491525423728814</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L39">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="M39">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2003,21 +1970,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.5425531914893617</v>
+        <v>0.5</v>
       </c>
       <c r="L40">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2029,21 +1996,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.5142857142857142</v>
+        <v>0.5</v>
       </c>
       <c r="L41">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2055,21 +2022,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.5</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2081,12 +2048,12 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K43">
         <v>0.4814814814814815</v>
@@ -2112,16 +2079,16 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>0.4719101123595505</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L44">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2133,21 +2100,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K45">
-        <v>0.4285714285714285</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2159,21 +2126,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K46">
-        <v>0.4242424242424243</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2185,21 +2152,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K47">
-        <v>0.4117647058823529</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2211,21 +2178,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K48">
-        <v>0.3555555555555556</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2237,21 +2204,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K49">
-        <v>0.3205128205128205</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2263,21 +2230,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K50">
-        <v>0.2876712328767123</v>
+        <v>0.203125</v>
       </c>
       <c r="L50">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2289,58 +2256,6 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K51">
-        <v>0.2372881355932203</v>
-      </c>
-      <c r="L51">
-        <v>14</v>
-      </c>
-      <c r="M51">
-        <v>14</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K52">
-        <v>0.203125</v>
-      </c>
-      <c r="L52">
-        <v>13</v>
-      </c>
-      <c r="M52">
-        <v>13</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
         <v>51</v>
       </c>
     </row>
